--- a/assets/boom/doc_策划/王者荣耀属性.xlsx
+++ b/assets/boom/doc_策划/王者荣耀属性.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>属性名称</t>
     <rPh sb="0" eb="1">
@@ -313,6 +313,303 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>bai'fen'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量值</t>
+    <rPh sb="0" eb="1">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大蓝值</t>
+    <rPh sb="0" eb="1">
+      <t>zui'da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血指的对敌人造成伤害时，根据对敌人造成伤害量按吸血比例转化为自身生命值(受范围衰减机制影响)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是不用技能,直接攻击的伤害。比如：平A就会产生很大的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是技能伤害，释放一个技能就会有攻击伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御方【物理防御】= 攻击方【物理穿透】</t>
+    <rPh sb="0" eb="1">
+      <t>wu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御方【法术防御】= 攻击方【法术穿透】</t>
+    <rPh sb="6" eb="7">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fa'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御方【物理防御】= 防御方【物理防御】*攻击【物理穿透率】</t>
+    <rPh sb="0" eb="1">
+      <t>wu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>chuan'tou</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御方【法术防御】= 防御方【法术防御】*攻击【法术穿透率】</t>
+    <rPh sb="6" eb="7">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fa'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视攻击方 【物理伤害】 =  防御方 【物理防御】</t>
+    <rPh sb="0" eb="1">
+      <t>wu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视攻击方 【法术伤害】 =  防御方 【法术防御】</t>
+    <rPh sb="7" eb="8">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fa'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视攻击方 【物理伤害】 =  攻击方 【物理伤害】 * 防御方 【物理防御率】</t>
+    <rPh sb="0" eb="1">
+      <t>wu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu'l</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wu'l</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>wu'l</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视攻击方 【法术伤害】 =  攻击方 【法术伤害】 * 防御方 【法术防御率】</t>
+    <rPh sb="7" eb="8">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升平A的攻击速度，攻击CD = 英雄配置攻击CD * (1 /（1 + 攻速加成）)</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>su'd</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ying'x</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gong'su</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出伤害 = 攻击伤害 * （2 + 暴击效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少次攻击出现一次暴击 = 1 / 暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血公式 = 对敌方造成的伤害 * 吸血百分比 * 限制比值； （限制法师100%,肉50%， 射手35%）</t>
+    <rPh sb="33" eb="34">
+      <t>xian'zhi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fa'shi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>rou</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>she'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能CD = 技能配置CD * (1 - 冷却缩减)</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>leng'q</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>suo'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -760,19 +1057,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="89.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,71 +1081,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -858,39 +1180,51 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -900,8 +1234,11 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -909,18 +1246,27 @@
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -930,8 +1276,11 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -941,8 +1290,11 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -952,14 +1304,17 @@
       <c r="C20" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -967,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -975,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -983,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
